--- a/p1/imd_notas2.xlsx
+++ b/p1/imd_notas2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="15">
   <si>
     <t>a_ID</t>
   </si>
@@ -130,12 +130,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,12 +440,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN4843"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" customWidth="1"/>
@@ -453,7 +455,7 @@
     <col min="11" max="11" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -526,7 +528,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -564,15 +566,15 @@
         <v>618</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>59073120</v>
+        <v>59015430</v>
       </c>
       <c r="D4">
         <v>2014</v>
@@ -602,14 +604,14 @@
         <v>615</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
         <v>59072580</v>
       </c>
       <c r="D5">
@@ -625,7 +627,7 @@
         <v>2014</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>6.1</v>
@@ -640,7 +642,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -671,14 +673,14 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L6">
         <v>673</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -707,7 +709,7 @@
         <v>7.2</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
@@ -716,7 +718,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -745,7 +747,7 @@
         <v>2.1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="s">
         <v>13</v>
@@ -754,7 +756,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -773,17 +775,17 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>2015</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>2.2999999999999998</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="s">
         <v>13</v>
@@ -792,7 +794,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -821,7 +823,7 @@
         <v>8.9</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="s">
         <v>14</v>
@@ -830,7 +832,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -859,7 +861,7 @@
         <v>2.4</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="s">
         <v>13</v>
@@ -868,7 +870,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -906,7 +908,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -944,7 +946,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -979,10 +981,10 @@
         <v>14</v>
       </c>
       <c r="L14">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1017,10 +1019,11 @@
         <v>13</v>
       </c>
       <c r="L15">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>663</v>
+      </c>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1042,7 +1045,7 @@
       <c r="G16">
         <v>2015</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <v>1</v>
       </c>
       <c r="I16">
@@ -1055,10 +1058,10 @@
         <v>14</v>
       </c>
       <c r="L16">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1080,7 +1083,7 @@
       <c r="G17">
         <v>2014</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <v>2</v>
       </c>
       <c r="I17">
@@ -1096,7 +1099,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1125,7 +1128,7 @@
         <v>0.6</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="K18" t="s">
         <v>13</v>
@@ -1134,58 +1137,94 @@
         <v>663</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>59145510</v>
+      </c>
+      <c r="D19">
+        <v>2014</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <v>2015</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0.6</v>
+      </c>
+      <c r="J19" s="2">
+        <v>22</v>
+      </c>
+      <c r="K19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
